--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il7</t>
   </si>
   <si>
     <t>Il2rg</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2081553333333333</v>
+        <v>0.5282253333333333</v>
       </c>
       <c r="H2">
-        <v>0.624466</v>
+        <v>1.584676</v>
       </c>
       <c r="I2">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="J2">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N2">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O2">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P2">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q2">
-        <v>5.111048899456222</v>
+        <v>23.07624383387111</v>
       </c>
       <c r="R2">
-        <v>45.999440095106</v>
+        <v>207.68619450484</v>
       </c>
       <c r="S2">
-        <v>0.08373727307857393</v>
+        <v>0.250275411269706</v>
       </c>
       <c r="T2">
-        <v>0.08373727307857394</v>
+        <v>0.250275411269706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2081553333333333</v>
+        <v>0.5282253333333333</v>
       </c>
       <c r="H3">
-        <v>0.624466</v>
+        <v>1.584676</v>
       </c>
       <c r="I3">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="J3">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.615614</v>
       </c>
       <c r="O3">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P3">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q3">
-        <v>0.2508697791248889</v>
+        <v>0.6366196367848889</v>
       </c>
       <c r="R3">
-        <v>2.257828012124</v>
+        <v>5.729576731063999</v>
       </c>
       <c r="S3">
-        <v>0.004110144828388816</v>
+        <v>0.006904513688005211</v>
       </c>
       <c r="T3">
-        <v>0.004110144828388817</v>
+        <v>0.006904513688005211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2081553333333333</v>
+        <v>0.5282253333333333</v>
       </c>
       <c r="H4">
-        <v>0.624466</v>
+        <v>1.584676</v>
       </c>
       <c r="I4">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="J4">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N4">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O4">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P4">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q4">
-        <v>1.057210599618444</v>
+        <v>2.631208883883111</v>
       </c>
       <c r="R4">
-        <v>9.514895396565999</v>
+        <v>23.680879954948</v>
       </c>
       <c r="S4">
-        <v>0.01732089330846185</v>
+        <v>0.02853700499488438</v>
       </c>
       <c r="T4">
-        <v>0.01732089330846185</v>
+        <v>0.02853700499488438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2081553333333333</v>
+        <v>0.5282253333333333</v>
       </c>
       <c r="H5">
-        <v>0.624466</v>
+        <v>1.584676</v>
       </c>
       <c r="I5">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="J5">
-        <v>0.3348106193020118</v>
+        <v>0.5375365413017625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N5">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O5">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P5">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q5">
-        <v>14.01661438047067</v>
+        <v>23.21862433134444</v>
       </c>
       <c r="R5">
-        <v>126.149529424236</v>
+        <v>208.9676189821</v>
       </c>
       <c r="S5">
-        <v>0.2296423080865872</v>
+        <v>0.251819611349167</v>
       </c>
       <c r="T5">
-        <v>0.2296423080865873</v>
+        <v>0.251819611349167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2859450000000001</v>
+        <v>0.2859449999999999</v>
       </c>
       <c r="H6">
-        <v>0.8578350000000001</v>
+        <v>0.8578349999999999</v>
       </c>
       <c r="I6">
-        <v>0.459932594583118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="J6">
-        <v>0.459932594583118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N6">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O6">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P6">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q6">
-        <v>7.021097437915001</v>
+        <v>12.49189716335</v>
       </c>
       <c r="R6">
-        <v>63.18987694123501</v>
+        <v>112.42707447015</v>
       </c>
       <c r="S6">
-        <v>0.1150307040757359</v>
+        <v>0.1354819580952499</v>
       </c>
       <c r="T6">
-        <v>0.1150307040757359</v>
+        <v>0.1354819580952499</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2859450000000001</v>
+        <v>0.2859449999999999</v>
       </c>
       <c r="H7">
-        <v>0.8578350000000001</v>
+        <v>0.8578349999999999</v>
       </c>
       <c r="I7">
-        <v>0.459932594583118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="J7">
-        <v>0.459932594583118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.615614</v>
       </c>
       <c r="O7">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P7">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q7">
-        <v>0.3446222484100001</v>
+        <v>0.3446222484099999</v>
       </c>
       <c r="R7">
-        <v>3.10160023569</v>
+        <v>3.101600235689999</v>
       </c>
       <c r="S7">
-        <v>0.005646145809156817</v>
+        <v>0.003737630594235004</v>
       </c>
       <c r="T7">
-        <v>0.005646145809156818</v>
+        <v>0.003737630594235005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2859450000000001</v>
+        <v>0.2859449999999999</v>
       </c>
       <c r="H8">
-        <v>0.8578350000000001</v>
+        <v>0.8578349999999999</v>
       </c>
       <c r="I8">
-        <v>0.459932594583118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="J8">
-        <v>0.459932594583118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N8">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O8">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P8">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q8">
-        <v>1.452300453065</v>
+        <v>1.424356191995</v>
       </c>
       <c r="R8">
-        <v>13.070704077585</v>
+        <v>12.819205727955</v>
       </c>
       <c r="S8">
-        <v>0.02379387910833315</v>
+        <v>0.01544797906940387</v>
       </c>
       <c r="T8">
-        <v>0.02379387910833316</v>
+        <v>0.01544797906940387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2859450000000001</v>
+        <v>0.2859449999999999</v>
       </c>
       <c r="H9">
-        <v>0.8578350000000001</v>
+        <v>0.8578349999999999</v>
       </c>
       <c r="I9">
-        <v>0.459932594583118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="J9">
-        <v>0.459932594583118</v>
+        <v>0.2909854499642813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N9">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O9">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P9">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q9">
-        <v>19.25475910149001</v>
+        <v>12.568972208375</v>
       </c>
       <c r="R9">
-        <v>173.29283191341</v>
+        <v>113.120749875375</v>
       </c>
       <c r="S9">
-        <v>0.3154618655898921</v>
+        <v>0.1363178822053925</v>
       </c>
       <c r="T9">
-        <v>0.3154618655898922</v>
+        <v>0.1363178822053926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,10 +1039,10 @@
         <v>0.382831</v>
       </c>
       <c r="I10">
-        <v>0.2052567861148701</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="J10">
-        <v>0.2052567861148701</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N10">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O10">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P10">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q10">
-        <v>3.133345868674555</v>
+        <v>5.574831387087777</v>
       </c>
       <c r="R10">
-        <v>28.200112818071</v>
+        <v>50.17348248379</v>
       </c>
       <c r="S10">
-        <v>0.05133541936621614</v>
+        <v>0.06046231909348839</v>
       </c>
       <c r="T10">
-        <v>0.05133541936621616</v>
+        <v>0.0604623190934884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,10 +1101,10 @@
         <v>0.382831</v>
       </c>
       <c r="I11">
-        <v>0.2052567861148701</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="J11">
-        <v>0.2052567861148701</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>3.615614</v>
       </c>
       <c r="O11">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P11">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q11">
         <v>0.1537965692482222</v>
@@ -1131,10 +1131,10 @@
         <v>1.384169123234</v>
       </c>
       <c r="S11">
-        <v>0.002519738232020508</v>
+        <v>0.001668014079655856</v>
       </c>
       <c r="T11">
-        <v>0.002519738232020509</v>
+        <v>0.001668014079655856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1163,10 +1163,10 @@
         <v>0.382831</v>
       </c>
       <c r="I12">
-        <v>0.2052567861148701</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="J12">
-        <v>0.2052567861148701</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N12">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O12">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P12">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q12">
-        <v>0.648126545020111</v>
+        <v>0.6356556975847778</v>
       </c>
       <c r="R12">
-        <v>5.833138905180999</v>
+        <v>5.720901278263</v>
       </c>
       <c r="S12">
-        <v>0.0106186324094054</v>
+        <v>0.006894059201500232</v>
       </c>
       <c r="T12">
-        <v>0.01061863240940541</v>
+        <v>0.006894059201500232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         <v>0.382831</v>
       </c>
       <c r="I13">
-        <v>0.2052567861148701</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="J13">
-        <v>0.2052567861148701</v>
+        <v>0.1298597641682559</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N13">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O13">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P13">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q13">
-        <v>8.592933001780667</v>
+        <v>5.609228114386111</v>
       </c>
       <c r="R13">
-        <v>77.336397016026</v>
+        <v>50.483053029475</v>
       </c>
       <c r="S13">
-        <v>0.1407829961072281</v>
+        <v>0.0608353717936114</v>
       </c>
       <c r="T13">
-        <v>0.1407829961072281</v>
+        <v>0.0608353717936114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04089733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.122692</v>
+      </c>
+      <c r="I14">
+        <v>0.0416182445657004</v>
+      </c>
+      <c r="J14">
+        <v>0.0416182445657004</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.68636333333333</v>
+      </c>
+      <c r="N14">
+        <v>131.05909</v>
+      </c>
+      <c r="O14">
+        <v>0.4655970190670373</v>
+      </c>
+      <c r="P14">
+        <v>0.4655970190670373</v>
+      </c>
+      <c r="Q14">
+        <v>1.786655763364444</v>
+      </c>
+      <c r="R14">
+        <v>16.07990187028</v>
+      </c>
+      <c r="S14">
+        <v>0.01937733060859303</v>
+      </c>
+      <c r="T14">
+        <v>0.01937733060859303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04089733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.122692</v>
+      </c>
+      <c r="I15">
+        <v>0.0416182445657004</v>
+      </c>
+      <c r="J15">
+        <v>0.0416182445657004</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.205204666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.615614</v>
+      </c>
+      <c r="O15">
+        <v>0.01284473362738172</v>
+      </c>
+      <c r="P15">
+        <v>0.01284473362738172</v>
+      </c>
+      <c r="Q15">
+        <v>0.04928965698755556</v>
+      </c>
+      <c r="R15">
+        <v>0.443606912888</v>
+      </c>
+      <c r="S15">
+        <v>0.0005345752654856484</v>
+      </c>
+      <c r="T15">
+        <v>0.0005345752654856484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04089733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.122692</v>
+      </c>
+      <c r="I16">
+        <v>0.0416182445657004</v>
+      </c>
+      <c r="J16">
+        <v>0.0416182445657004</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.981224333333333</v>
+      </c>
+      <c r="N16">
+        <v>14.943673</v>
+      </c>
+      <c r="O16">
+        <v>0.05308849315764798</v>
+      </c>
+      <c r="P16">
+        <v>0.05308849315764799</v>
+      </c>
+      <c r="Q16">
+        <v>0.2037187919684444</v>
+      </c>
+      <c r="R16">
+        <v>1.833469127716</v>
+      </c>
+      <c r="S16">
+        <v>0.002209449891859506</v>
+      </c>
+      <c r="T16">
+        <v>0.002209449891859506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04089733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.122692</v>
+      </c>
+      <c r="I17">
+        <v>0.0416182445657004</v>
+      </c>
+      <c r="J17">
+        <v>0.0416182445657004</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>43.95590833333333</v>
+      </c>
+      <c r="N17">
+        <v>131.867725</v>
+      </c>
+      <c r="O17">
+        <v>0.4684697541479331</v>
+      </c>
+      <c r="P17">
+        <v>0.4684697541479331</v>
+      </c>
+      <c r="Q17">
+        <v>1.797679435077778</v>
+      </c>
+      <c r="R17">
+        <v>16.1791149157</v>
+      </c>
+      <c r="S17">
+        <v>0.01949688879976222</v>
+      </c>
+      <c r="T17">
+        <v>0.01949688879976222</v>
       </c>
     </row>
   </sheetData>
